--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N2">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O2">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P2">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q2">
-        <v>1604.814696329854</v>
+        <v>1680.873274667166</v>
       </c>
       <c r="R2">
-        <v>1604.814696329854</v>
+        <v>15127.8594720045</v>
       </c>
       <c r="S2">
-        <v>0.03358664390921216</v>
+        <v>0.03399262233324614</v>
       </c>
       <c r="T2">
-        <v>0.03358664390921216</v>
+        <v>0.03399262233324614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N3">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O3">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P3">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q3">
-        <v>2636.940994093304</v>
+        <v>2710.656117336219</v>
       </c>
       <c r="R3">
-        <v>2636.940994093304</v>
+        <v>24395.90505602596</v>
       </c>
       <c r="S3">
-        <v>0.05518767891443328</v>
+        <v>0.05481811809409529</v>
       </c>
       <c r="T3">
-        <v>0.05518767891443328</v>
+        <v>0.05481811809409529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N4">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O4">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P4">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q4">
-        <v>1442.236045356149</v>
+        <v>1482.140076454786</v>
       </c>
       <c r="R4">
-        <v>1442.236045356149</v>
+        <v>13339.26068809308</v>
       </c>
       <c r="S4">
-        <v>0.03018408829330099</v>
+        <v>0.02997360278327486</v>
       </c>
       <c r="T4">
-        <v>0.03018408829330099</v>
+        <v>0.02997360278327486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N5">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O5">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P5">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q5">
-        <v>1376.19744923552</v>
+        <v>1458.240333494382</v>
       </c>
       <c r="R5">
-        <v>1376.19744923552</v>
+        <v>13124.16300144943</v>
       </c>
       <c r="S5">
-        <v>0.02880198803135776</v>
+        <v>0.02949027370156549</v>
       </c>
       <c r="T5">
-        <v>0.02880198803135776</v>
+        <v>0.02949027370156549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N6">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O6">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P6">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q6">
-        <v>296.6273194786322</v>
+        <v>329.545665307274</v>
       </c>
       <c r="R6">
-        <v>296.6273194786322</v>
+        <v>2965.910987765466</v>
       </c>
       <c r="S6">
-        <v>0.006208016524186411</v>
+        <v>0.006664465139150157</v>
       </c>
       <c r="T6">
-        <v>0.006208016524186411</v>
+        <v>0.006664465139150159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N7">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O7">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P7">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q7">
-        <v>604.4244878964768</v>
+        <v>643.281450794889</v>
       </c>
       <c r="R7">
-        <v>604.4244878964768</v>
+        <v>5789.533057154</v>
       </c>
       <c r="S7">
-        <v>0.01264980317753414</v>
+        <v>0.0130092040491174</v>
       </c>
       <c r="T7">
-        <v>0.01264980317753414</v>
+        <v>0.0130092040491174</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N8">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O8">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P8">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q8">
-        <v>993.1562277022387</v>
+        <v>1037.386236098828</v>
       </c>
       <c r="R8">
-        <v>993.1562277022387</v>
+        <v>9336.476124889452</v>
       </c>
       <c r="S8">
-        <v>0.02078544310588451</v>
+        <v>0.02097926064319024</v>
       </c>
       <c r="T8">
-        <v>0.02078544310588451</v>
+        <v>0.02097926064319023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N9">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O9">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P9">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q9">
-        <v>543.1921736097162</v>
+        <v>567.2249258956622</v>
       </c>
       <c r="R9">
-        <v>543.1921736097162</v>
+        <v>5105.024333060959</v>
       </c>
       <c r="S9">
-        <v>0.01136829202214049</v>
+        <v>0.01147109837164419</v>
       </c>
       <c r="T9">
-        <v>0.01136829202214049</v>
+        <v>0.01147109837164419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N10">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O10">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P10">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q10">
-        <v>518.3199284010337</v>
+        <v>558.0783343251356</v>
       </c>
       <c r="R10">
-        <v>518.3199284010337</v>
+        <v>5022.70500892622</v>
       </c>
       <c r="S10">
-        <v>0.01084774890588096</v>
+        <v>0.01128612509758525</v>
       </c>
       <c r="T10">
-        <v>0.01084774890588096</v>
+        <v>0.01128612509758525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N11">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O11">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P11">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q11">
-        <v>111.7193256529885</v>
+        <v>126.1193314671547</v>
       </c>
       <c r="R11">
-        <v>111.7193256529885</v>
+        <v>1135.073983204392</v>
       </c>
       <c r="S11">
-        <v>0.002338137366928121</v>
+        <v>0.002550535408050543</v>
       </c>
       <c r="T11">
-        <v>0.002338137366928121</v>
+        <v>0.002550535408050543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N12">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O12">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P12">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q12">
-        <v>3288.801002024451</v>
+        <v>3367.543244360223</v>
       </c>
       <c r="R12">
-        <v>3288.801002024451</v>
+        <v>30307.889199242</v>
       </c>
       <c r="S12">
-        <v>0.06883024463564075</v>
+        <v>0.0681024723408005</v>
       </c>
       <c r="T12">
-        <v>0.06883024463564075</v>
+        <v>0.0681024723408005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N13">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O13">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P13">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q13">
-        <v>5403.972311249875</v>
+        <v>5430.660260528444</v>
       </c>
       <c r="R13">
-        <v>5403.972311249875</v>
+        <v>48875.942344756</v>
       </c>
       <c r="S13">
-        <v>0.1130979758150756</v>
+        <v>0.1098252831064049</v>
       </c>
       <c r="T13">
-        <v>0.1130979758150756</v>
+        <v>0.1098252831064049</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N14">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O14">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P14">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q14">
-        <v>2955.623077212996</v>
+        <v>2969.391492436675</v>
       </c>
       <c r="R14">
-        <v>2955.623077212996</v>
+        <v>26724.52343193008</v>
       </c>
       <c r="S14">
-        <v>0.06185727240112393</v>
+        <v>0.06005057316527378</v>
       </c>
       <c r="T14">
-        <v>0.06185727240112393</v>
+        <v>0.06005057316527378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N15">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O15">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P15">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q15">
-        <v>2820.28794999207</v>
+        <v>2921.509585358229</v>
       </c>
       <c r="R15">
-        <v>2820.28794999207</v>
+        <v>26293.58626822406</v>
       </c>
       <c r="S15">
-        <v>0.05902488761752716</v>
+        <v>0.0590822481829901</v>
       </c>
       <c r="T15">
-        <v>0.05902488761752716</v>
+        <v>0.0590822481829901</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N16">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O16">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P16">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q16">
-        <v>607.8883921989195</v>
+        <v>660.2278087462907</v>
       </c>
       <c r="R16">
-        <v>607.8883921989195</v>
+        <v>5942.050278716617</v>
       </c>
       <c r="S16">
-        <v>0.01272229810209322</v>
+        <v>0.01335191349333773</v>
       </c>
       <c r="T16">
-        <v>0.01272229810209322</v>
+        <v>0.01335191349333774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H17">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N17">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O17">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P17">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q17">
-        <v>4622.560777385758</v>
+        <v>4783.316977550223</v>
       </c>
       <c r="R17">
-        <v>4622.560777385758</v>
+        <v>43049.852797952</v>
       </c>
       <c r="S17">
-        <v>0.09674406841725171</v>
+        <v>0.09673393584668982</v>
       </c>
       <c r="T17">
-        <v>0.09674406841725171</v>
+        <v>0.09673393584668982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H18">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N18">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O18">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P18">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q18">
-        <v>7595.531147273903</v>
+        <v>7713.804259825664</v>
       </c>
       <c r="R18">
-        <v>7595.531147273903</v>
+        <v>69424.23833843098</v>
       </c>
       <c r="S18">
-        <v>0.1589643966547919</v>
+        <v>0.1559977417148002</v>
       </c>
       <c r="T18">
-        <v>0.1589643966547919</v>
+        <v>0.1559977417148002</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H19">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N19">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O19">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P19">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q19">
-        <v>4154.263909871984</v>
+        <v>4217.775306242275</v>
       </c>
       <c r="R19">
-        <v>4154.263909871984</v>
+        <v>37959.97775618048</v>
       </c>
       <c r="S19">
-        <v>0.08694323585449219</v>
+        <v>0.08529687825512897</v>
       </c>
       <c r="T19">
-        <v>0.08694323585449219</v>
+        <v>0.08529687825512897</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H20">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N20">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O20">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P20">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q20">
-        <v>3964.044176142618</v>
+        <v>4149.763012879929</v>
       </c>
       <c r="R20">
-        <v>3964.044176142618</v>
+        <v>37347.86711591937</v>
       </c>
       <c r="S20">
-        <v>0.08296218902342542</v>
+        <v>0.08392145261351304</v>
       </c>
       <c r="T20">
-        <v>0.08296218902342542</v>
+        <v>0.08392145261351304</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H21">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N21">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O21">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P21">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q21">
-        <v>854.4150397294014</v>
+        <v>937.7990592744108</v>
       </c>
       <c r="R21">
-        <v>854.4150397294014</v>
+        <v>8440.191533469697</v>
       </c>
       <c r="S21">
-        <v>0.01788177398655152</v>
+        <v>0.01896529008274038</v>
       </c>
       <c r="T21">
-        <v>0.01788177398655152</v>
+        <v>0.01896529008274038</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H22">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N22">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O22">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P22">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q22">
-        <v>302.4113750984951</v>
+        <v>373.5924692526111</v>
       </c>
       <c r="R22">
-        <v>302.4113750984951</v>
+        <v>3362.3322232735</v>
       </c>
       <c r="S22">
-        <v>0.00632906913973118</v>
+        <v>0.00755523209586607</v>
       </c>
       <c r="T22">
-        <v>0.00632906913973118</v>
+        <v>0.00755523209586607</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H23">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N23">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O23">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P23">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q23">
-        <v>496.9053149258065</v>
+        <v>602.4729689219769</v>
       </c>
       <c r="R23">
-        <v>496.9053149258065</v>
+        <v>5422.256720297793</v>
       </c>
       <c r="S23">
-        <v>0.01039956943762786</v>
+        <v>0.01218392630022006</v>
       </c>
       <c r="T23">
-        <v>0.01039956943762786</v>
+        <v>0.01218392630022006</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H24">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N24">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O24">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P24">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q24">
-        <v>271.7750446143237</v>
+        <v>329.4218423757377</v>
       </c>
       <c r="R24">
-        <v>271.7750446143237</v>
+        <v>2964.796581381639</v>
       </c>
       <c r="S24">
-        <v>0.005687891360757681</v>
+        <v>0.006661961044277961</v>
       </c>
       <c r="T24">
-        <v>0.005687891360757681</v>
+        <v>0.006661961044277961</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H25">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N25">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O25">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P25">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q25">
-        <v>259.3307277046606</v>
+        <v>324.1098631077894</v>
       </c>
       <c r="R25">
-        <v>259.3307277046606</v>
+        <v>2916.988767970105</v>
       </c>
       <c r="S25">
-        <v>0.005427448306681652</v>
+        <v>0.006554535869626912</v>
       </c>
       <c r="T25">
-        <v>0.005427448306681652</v>
+        <v>0.006554535869626912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H26">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N26">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O26">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P26">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q26">
-        <v>55.89646940575879</v>
+        <v>73.24512840387533</v>
       </c>
       <c r="R26">
-        <v>55.89646940575879</v>
+        <v>659.206155634878</v>
       </c>
       <c r="S26">
-        <v>0.001169838996369408</v>
+        <v>0.001481250267409994</v>
       </c>
       <c r="T26">
-        <v>0.001169838996369408</v>
+        <v>0.001481250267409995</v>
       </c>
     </row>
   </sheetData>
